--- a/Documentação/Planilhas/Conferencia_FLASH.xlsx
+++ b/Documentação/Planilhas/Conferencia_FLASH.xlsx
@@ -248,9 +248,6 @@
     <t>Informar o CD_ITEM na segunda lacuna da coluna Item e pedir o detalhamento da linha apresentada. Na aba superior "Dados do Item I", seção "Estrutura Mercadológica", pegar a segunda informação do Grupo de Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Pegar a Informação no cabeçalho da tela referente à Companhia </t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da linha apresentada. Na aba superior "Geral", pegar a informação da data de Inclusão</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>V20049704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a Informação no cabeçalho da tela referente à Unidade de Negócio </t>
   </si>
 </sst>
 </file>
@@ -524,6 +524,48 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,48 +580,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,8 +889,8 @@
   </sheetPr>
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -913,20 +913,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="21">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5"/>
       <c r="L3" s="3"/>
     </row>
@@ -987,11 +987,11 @@
       <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>20</v>
@@ -1026,15 +1026,15 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>45</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>45</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
@@ -1290,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>47</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>47</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>47</v>
@@ -1421,296 +1421,310 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="9" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14">
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="11.25" customHeight="1">
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="22" t="s">
         <v>67</v>
       </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="H30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="H30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="H31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="H31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="H32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="8:13">
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="8:13" ht="11.25" customHeight="1">
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="8:13">
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="8:13">
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="8:13">
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" spans="8:13">
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="8:13">
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" spans="8:13">
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="43" spans="8:13">
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="8:13">
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="8:13">
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="8:13">
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="8:13">
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M19:N21"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L35:L41"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="D22:D27"/>
     <mergeCell ref="N22:N27"/>
     <mergeCell ref="E22:E27"/>
     <mergeCell ref="A2:B2"/>
@@ -1727,20 +1741,6 @@
     <mergeCell ref="I22:I27"/>
     <mergeCell ref="H22:H27"/>
     <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M19:N21"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L35:L41"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
